--- a/biology/Médecine/Paul_Manasse/Paul_Manasse.xlsx
+++ b/biology/Médecine/Paul_Manasse/Paul_Manasse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Manasse  (14 mars 1866 à Naugard en province de Poméranie - 27 septembre 1927 à Wurtzbourg) était un oto-rhino-laryngologiste allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Manasse étudia la médecine aux universités de Tübingen, Berlin et Strasbourg. En 1890, il fut reçu docteur à l'université Kaiser-Wilhelm de Strasbourg, alors ville allemande, avec un mémoire portant sur la lécithine du cholestérol des globules rouges. Il devint assistant à l'Institut de pathologie ORL à Strasbourg, auprès d'Abraham Kuhn. À la suite de voyages d'études à Vienne et Berlin, il devint en 1896 professeur d’ORL à l'université de Strasbourg. En 1901, il y devint chef du service d'ORL.
 Après la guerre, les autorités françaises lui ayant demandé de devenir Français pour conserver son poste à Strasbourg, il choisit de le quitter et partit pour Wurtzbourg où, à l'hôpital de Luitpold, il fonda un service d’ORL.
@@ -544,7 +558,9 @@
           <t>Publications (sélection)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'ostitis chronica de la capsule otique humaine. In Die Ohrenheilkunde und ihre Grenzgebiete, tome 7, 1912.
 À propos de la Cellutis perisinualis primaire du rocher et de la thrombose du sinus, 1916.
